--- a/Code/Results/Cases/Case_0_186/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_186/res_line/loading_percent.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.803332434516777</v>
+        <v>4.915454186040008</v>
       </c>
       <c r="D2">
-        <v>10.39536399173059</v>
+        <v>8.059116697391062</v>
       </c>
       <c r="E2">
-        <v>22.39223965421439</v>
+        <v>14.32885920019903</v>
       </c>
       <c r="F2">
-        <v>30.09423254884804</v>
+        <v>34.48813553848034</v>
       </c>
       <c r="G2">
-        <v>54.40736327939757</v>
+        <v>43.26678856483562</v>
       </c>
       <c r="H2">
-        <v>13.38628908989294</v>
+        <v>17.45222829421117</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>13.95286335739594</v>
+        <v>9.805364248503889</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>102.2606011013434</v>
+        <v>59.93228829467144</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.147452392613056</v>
+        <v>4.751297677005716</v>
       </c>
       <c r="D3">
-        <v>9.728729223702153</v>
+        <v>7.830008958316026</v>
       </c>
       <c r="E3">
-        <v>20.45972353320698</v>
+        <v>13.85707858474041</v>
       </c>
       <c r="F3">
-        <v>25.5525059242712</v>
+        <v>35.15516020029545</v>
       </c>
       <c r="G3">
-        <v>47.28397718818314</v>
+        <v>43.69454217062832</v>
       </c>
       <c r="H3">
-        <v>11.64849739492009</v>
+        <v>17.68170204920864</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>12.68046609322738</v>
+        <v>9.688160437001489</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>93.8500180206226</v>
+        <v>56.62984748817227</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.742446096297046</v>
+        <v>4.649697292912531</v>
       </c>
       <c r="D4">
-        <v>9.310458325437999</v>
+        <v>7.685580534485968</v>
       </c>
       <c r="E4">
-        <v>19.28670850167944</v>
+        <v>13.56249429853682</v>
       </c>
       <c r="F4">
-        <v>23.09642738838247</v>
+        <v>35.59566757088005</v>
       </c>
       <c r="G4">
-        <v>43.30419968940298</v>
+        <v>44.01337540754488</v>
       </c>
       <c r="H4">
-        <v>10.68598885299336</v>
+        <v>17.83380954292453</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.91912378911194</v>
+        <v>9.619371387037557</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>88.70652038647479</v>
+        <v>54.49656666426139</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.575819342140463</v>
+        <v>4.608160379575963</v>
       </c>
       <c r="D5">
-        <v>9.137266993378564</v>
+        <v>7.625843500384537</v>
       </c>
       <c r="E5">
-        <v>18.80765583538079</v>
+        <v>13.44138592253792</v>
       </c>
       <c r="F5">
-        <v>22.16673478091377</v>
+        <v>35.7827289625412</v>
       </c>
       <c r="G5">
-        <v>41.76067475507406</v>
+        <v>44.15686426090563</v>
       </c>
       <c r="H5">
-        <v>10.31494730325619</v>
+        <v>17.89855062843411</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.61038389491456</v>
+        <v>9.592156398688672</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>86.59687769304294</v>
+        <v>53.6010805822708</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.548032406747459</v>
+        <v>4.601257228816817</v>
       </c>
       <c r="D6">
-        <v>9.108332570570846</v>
+        <v>7.615872926794919</v>
       </c>
       <c r="E6">
-        <v>18.72794738823556</v>
+        <v>13.42121708392282</v>
       </c>
       <c r="F6">
-        <v>22.01642495184948</v>
+        <v>35.81423997601489</v>
       </c>
       <c r="G6">
-        <v>41.50867065869414</v>
+        <v>44.1814930354403</v>
       </c>
       <c r="H6">
-        <v>10.25451126808475</v>
+        <v>17.90946552452302</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.55913099617313</v>
+        <v>9.587687249535147</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>86.24537735951921</v>
+        <v>53.45081942142449</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.740206399087671</v>
+        <v>4.649137559061122</v>
       </c>
       <c r="D7">
-        <v>9.308134208102844</v>
+        <v>7.684778381178431</v>
       </c>
       <c r="E7">
-        <v>19.28025670073839</v>
+        <v>13.56086505434898</v>
       </c>
       <c r="F7">
-        <v>23.08361234280947</v>
+        <v>35.59816006603956</v>
       </c>
       <c r="G7">
-        <v>43.28308673541004</v>
+        <v>44.01525638528129</v>
       </c>
       <c r="H7">
-        <v>10.68090404487989</v>
+        <v>17.83467158509362</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.91495755925352</v>
+        <v>9.619001023692691</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>88.67814165625791</v>
+        <v>54.48459514400166</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.576921614525546</v>
+        <v>4.859060652288966</v>
       </c>
       <c r="D8">
-        <v>10.16699289153955</v>
+        <v>7.980935990993852</v>
       </c>
       <c r="E8">
-        <v>21.71976694004717</v>
+        <v>14.16730627235129</v>
       </c>
       <c r="F8">
-        <v>28.44903705391031</v>
+        <v>34.7115566877203</v>
       </c>
       <c r="G8">
-        <v>51.85322734035406</v>
+        <v>43.40227351399714</v>
       </c>
       <c r="H8">
-        <v>12.76142698891004</v>
+        <v>17.52898551761527</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>13.50739905187101</v>
+        <v>9.764305109521224</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>99.33635586021936</v>
+        <v>58.81572028645622</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.284705453948909</v>
+        <v>5.261526201115447</v>
       </c>
       <c r="D9">
-        <v>11.886062310347</v>
+        <v>8.529398650333931</v>
       </c>
       <c r="E9">
-        <v>27.0112958773462</v>
+        <v>15.31084515464015</v>
       </c>
       <c r="F9">
-        <v>42.95755102298578</v>
+        <v>33.22985651592481</v>
       </c>
       <c r="G9">
-        <v>73.81281401853336</v>
+        <v>42.67136343001286</v>
       </c>
       <c r="H9">
-        <v>18.1718474532588</v>
+        <v>17.02146401379152</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>17.1006747549932</v>
+        <v>10.07356865933538</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>122.1300336666403</v>
+        <v>66.45909079625135</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.22327844039892</v>
+        <v>5.548263803092957</v>
       </c>
       <c r="D10">
-        <v>13.77014935501968</v>
+        <v>8.909675955913865</v>
       </c>
       <c r="E10">
-        <v>34.68695530189446</v>
+        <v>16.11525012659878</v>
       </c>
       <c r="F10">
-        <v>68.27955229169224</v>
+        <v>32.3150119436403</v>
       </c>
       <c r="G10">
-        <v>110.5136488075239</v>
+        <v>42.45552494866779</v>
       </c>
       <c r="H10">
-        <v>27.30102166139734</v>
+        <v>16.70900806236766</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>22.71191680546083</v>
+        <v>10.31442487838811</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>152.3520551040684</v>
+        <v>71.54554932629451</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.22327844039892</v>
+        <v>5.676166067931619</v>
       </c>
       <c r="D11">
-        <v>13.77014935501968</v>
+        <v>9.077218836521554</v>
       </c>
       <c r="E11">
-        <v>34.68695530189446</v>
+        <v>16.47207299712639</v>
       </c>
       <c r="F11">
-        <v>68.27955229169224</v>
+        <v>31.94075446909027</v>
       </c>
       <c r="G11">
-        <v>110.5136488075239</v>
+        <v>42.43399350275977</v>
       </c>
       <c r="H11">
-        <v>27.30102166139734</v>
+        <v>16.58101830945898</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>22.71191680546083</v>
+        <v>10.42670329079487</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>152.3520551040684</v>
+        <v>73.74354812867794</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>11.22327844039892</v>
+        <v>5.724192095648433</v>
       </c>
       <c r="D12">
-        <v>13.77014935501968</v>
+        <v>9.139841647955569</v>
       </c>
       <c r="E12">
-        <v>34.68695530189446</v>
+        <v>16.60578948980098</v>
       </c>
       <c r="F12">
-        <v>68.27955229169224</v>
+        <v>31.80544483277645</v>
       </c>
       <c r="G12">
-        <v>110.5136488075239</v>
+        <v>42.437394113351</v>
       </c>
       <c r="H12">
-        <v>27.30102166139734</v>
+        <v>16.53467891664123</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>22.71191680546083</v>
+        <v>10.46958885749049</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>152.3520551040684</v>
+        <v>74.55918116567652</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>11.22327844039892</v>
+        <v>5.713867598427241</v>
       </c>
       <c r="D13">
-        <v>13.77014935501968</v>
+        <v>9.126391834969201</v>
       </c>
       <c r="E13">
-        <v>34.68695530189446</v>
+        <v>16.57705509129294</v>
       </c>
       <c r="F13">
-        <v>68.27955229169224</v>
+        <v>31.83429446403534</v>
       </c>
       <c r="G13">
-        <v>110.5136488075239</v>
+        <v>42.43613979111277</v>
       </c>
       <c r="H13">
-        <v>27.30102166139734</v>
+        <v>16.54456277184991</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>22.71191680546083</v>
+        <v>10.46033664790615</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>152.3520551040684</v>
+        <v>74.38426305060062</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>11.22327844039892</v>
+        <v>5.680125598990881</v>
       </c>
       <c r="D14">
-        <v>13.77014935501968</v>
+        <v>9.082387533851865</v>
       </c>
       <c r="E14">
-        <v>34.68695530189446</v>
+        <v>16.48310258039757</v>
       </c>
       <c r="F14">
-        <v>68.27955229169224</v>
+        <v>31.92949160616219</v>
       </c>
       <c r="G14">
-        <v>110.5136488075239</v>
+        <v>42.43403879854488</v>
       </c>
       <c r="H14">
-        <v>27.30102166139734</v>
+        <v>16.57716274862739</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>22.71191680546083</v>
+        <v>10.43022425577496</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>152.3520551040684</v>
+        <v>73.81098557082314</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>11.22327844039892</v>
+        <v>5.659403354750148</v>
       </c>
       <c r="D15">
-        <v>13.77014935501968</v>
+        <v>9.055325501447815</v>
       </c>
       <c r="E15">
-        <v>34.68695530189446</v>
+        <v>16.42536844327523</v>
       </c>
       <c r="F15">
-        <v>68.27955229169224</v>
+        <v>31.98864982353337</v>
       </c>
       <c r="G15">
-        <v>110.5136488075239</v>
+        <v>42.43427171555527</v>
       </c>
       <c r="H15">
-        <v>27.30102166139734</v>
+        <v>16.59741109824921</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>22.71191680546083</v>
+        <v>10.41182685825058</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>152.3520551040684</v>
+        <v>73.45766097606068</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>11.22327844039892</v>
+        <v>5.53985025256956</v>
       </c>
       <c r="D16">
-        <v>13.77014935501968</v>
+        <v>8.898613608518685</v>
       </c>
       <c r="E16">
-        <v>34.68695530189446</v>
+        <v>16.09173923384965</v>
       </c>
       <c r="F16">
-        <v>68.27955229169224</v>
+        <v>32.34034629347623</v>
       </c>
       <c r="G16">
-        <v>110.5136488075239</v>
+        <v>42.45852077939599</v>
       </c>
       <c r="H16">
-        <v>27.30102166139734</v>
+        <v>16.71766502420883</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>22.71191680546083</v>
+        <v>10.30713991045031</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>152.3520551040684</v>
+        <v>71.39956917002849</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>11.22327844039892</v>
+        <v>5.465826402599496</v>
       </c>
       <c r="D17">
-        <v>13.77014935501968</v>
+        <v>8.801051778117873</v>
       </c>
       <c r="E17">
-        <v>34.68695530189446</v>
+        <v>15.88466427569868</v>
       </c>
       <c r="F17">
-        <v>68.27955229169224</v>
+        <v>32.56710089048758</v>
       </c>
       <c r="G17">
-        <v>110.5136488075239</v>
+        <v>42.49341869761574</v>
       </c>
       <c r="H17">
-        <v>27.30102166139734</v>
+        <v>16.7951251188746</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>22.71191680546083</v>
+        <v>10.2435967044659</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>152.3520551040684</v>
+        <v>70.10728071315653</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>11.22327844039892</v>
+        <v>5.423013366718439</v>
       </c>
       <c r="D18">
-        <v>13.77014935501968</v>
+        <v>8.744426100525789</v>
       </c>
       <c r="E18">
-        <v>34.68695530189446</v>
+        <v>15.76470801895726</v>
       </c>
       <c r="F18">
-        <v>68.27955229169224</v>
+        <v>32.70144395158615</v>
       </c>
       <c r="G18">
-        <v>110.5136488075239</v>
+        <v>42.52067629200982</v>
       </c>
       <c r="H18">
-        <v>27.30102166139734</v>
+        <v>16.84100390379932</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>22.71191680546083</v>
+        <v>10.20730484490095</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>152.3520551040684</v>
+        <v>69.35308531700791</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>11.22327844039892</v>
+        <v>5.408478392862195</v>
       </c>
       <c r="D19">
-        <v>13.77014935501968</v>
+        <v>8.725167161756268</v>
       </c>
       <c r="E19">
-        <v>34.68695530189446</v>
+        <v>15.72394965425791</v>
       </c>
       <c r="F19">
-        <v>68.27955229169224</v>
+        <v>32.74759212360743</v>
       </c>
       <c r="G19">
-        <v>110.5136488075239</v>
+        <v>42.5311225627466</v>
       </c>
       <c r="H19">
-        <v>27.30102166139734</v>
+        <v>16.85676262747802</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>22.71191680546083</v>
+        <v>10.19506177483642</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>152.3520551040684</v>
+        <v>69.0958566359071</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>11.22327844039892</v>
+        <v>5.473731170901959</v>
       </c>
       <c r="D20">
-        <v>13.77014935501968</v>
+        <v>8.811490551267124</v>
       </c>
       <c r="E20">
-        <v>34.68695530189446</v>
+        <v>15.90679669409255</v>
       </c>
       <c r="F20">
-        <v>68.27955229169224</v>
+        <v>32.5425540810798</v>
       </c>
       <c r="G20">
-        <v>110.5136488075239</v>
+        <v>42.48895614949463</v>
       </c>
       <c r="H20">
-        <v>27.30102166139734</v>
+        <v>16.78674148825014</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>22.71191680546083</v>
+        <v>10.25033459907246</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>152.3520551040684</v>
+        <v>70.24597610094273</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>11.22327844039892</v>
+        <v>5.690047826929261</v>
       </c>
       <c r="D21">
-        <v>13.77014935501968</v>
+        <v>9.095335260327341</v>
       </c>
       <c r="E21">
-        <v>34.68695530189446</v>
+        <v>16.51073752158328</v>
       </c>
       <c r="F21">
-        <v>68.27955229169224</v>
+        <v>31.90135260565309</v>
       </c>
       <c r="G21">
-        <v>110.5136488075239</v>
+        <v>42.43433828241599</v>
       </c>
       <c r="H21">
-        <v>27.30102166139734</v>
+        <v>16.56752883578516</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>22.71191680546083</v>
+        <v>10.43905917319047</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>152.3520551040684</v>
+        <v>73.97982447469691</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.22327844039892</v>
+        <v>5.829030026992053</v>
       </c>
       <c r="D22">
-        <v>13.77014935501968</v>
+        <v>9.276037833264242</v>
       </c>
       <c r="E22">
-        <v>34.68695530189446</v>
+        <v>16.89722610690288</v>
       </c>
       <c r="F22">
-        <v>68.27955229169224</v>
+        <v>31.51987403292587</v>
       </c>
       <c r="G22">
-        <v>110.5136488075239</v>
+        <v>42.46620753526396</v>
       </c>
       <c r="H22">
-        <v>27.30102166139734</v>
+        <v>16.43670867104714</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>22.71191680546083</v>
+        <v>10.56453803426754</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>152.3520551040684</v>
+        <v>76.32276827879785</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.22327844039892</v>
+        <v>5.75508449401391</v>
       </c>
       <c r="D23">
-        <v>13.77014935501968</v>
+        <v>9.180044906103046</v>
       </c>
       <c r="E23">
-        <v>34.68695530189446</v>
+        <v>16.69173012342482</v>
       </c>
       <c r="F23">
-        <v>68.27955229169224</v>
+        <v>31.71990190339464</v>
       </c>
       <c r="G23">
-        <v>110.5136488075239</v>
+        <v>42.44285036775756</v>
       </c>
       <c r="H23">
-        <v>27.30102166139734</v>
+        <v>16.50535872572639</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>22.71191680546083</v>
+        <v>10.49737911292911</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>152.3520551040684</v>
+        <v>75.08120590209302</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>11.22327844039892</v>
+        <v>5.470158218393602</v>
       </c>
       <c r="D24">
-        <v>13.77014935501968</v>
+        <v>8.806772848712956</v>
       </c>
       <c r="E24">
-        <v>34.68695530189446</v>
+        <v>15.89679344266914</v>
       </c>
       <c r="F24">
-        <v>68.27955229169224</v>
+        <v>32.55363932939927</v>
       </c>
       <c r="G24">
-        <v>110.5136488075239</v>
+        <v>42.49095129956406</v>
       </c>
       <c r="H24">
-        <v>27.30102166139734</v>
+        <v>16.7905275423198</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>22.71191680546083</v>
+        <v>10.24728764778754</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>152.3520551040684</v>
+        <v>70.18330692748897</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>11.22327844039892</v>
+        <v>5.153999764704553</v>
       </c>
       <c r="D25">
-        <v>13.77014935501968</v>
+        <v>8.384811062073485</v>
       </c>
       <c r="E25">
-        <v>34.68695530189446</v>
+        <v>15.00725493998042</v>
       </c>
       <c r="F25">
-        <v>68.27955229169224</v>
+        <v>33.60151206343575</v>
       </c>
       <c r="G25">
-        <v>110.5136488075239</v>
+        <v>42.81510595569799</v>
       </c>
       <c r="H25">
-        <v>27.30102166139734</v>
+        <v>17.14848527227581</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>22.71191680546083</v>
+        <v>9.987421922039857</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>152.3520551040684</v>
+        <v>64.48373792389542</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_186/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_186/res_line/loading_percent.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.915454186040008</v>
+        <v>7.803332434516818</v>
       </c>
       <c r="D2">
-        <v>8.059116697391062</v>
+        <v>10.39536399173059</v>
       </c>
       <c r="E2">
-        <v>14.32885920019903</v>
+        <v>22.39223965421434</v>
       </c>
       <c r="F2">
-        <v>34.48813553848034</v>
+        <v>30.0942325488482</v>
       </c>
       <c r="G2">
-        <v>43.26678856483562</v>
+        <v>54.40736327939789</v>
       </c>
       <c r="H2">
-        <v>17.45222829421117</v>
+        <v>13.38628908989299</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.805364248503889</v>
+        <v>13.95286335739589</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>59.93228829467144</v>
+        <v>102.2606011013433</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.751297677005716</v>
+        <v>7.147452392612931</v>
       </c>
       <c r="D3">
-        <v>7.830008958316026</v>
+        <v>9.72872922370215</v>
       </c>
       <c r="E3">
-        <v>13.85707858474041</v>
+        <v>20.45972353320704</v>
       </c>
       <c r="F3">
-        <v>35.15516020029545</v>
+        <v>25.5525059242713</v>
       </c>
       <c r="G3">
-        <v>43.69454217062832</v>
+        <v>47.28397718818312</v>
       </c>
       <c r="H3">
-        <v>17.68170204920864</v>
+        <v>11.64849739492013</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.688160437001489</v>
+        <v>12.68046609322736</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>56.62984748817227</v>
+        <v>93.85001802062271</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.649697292912531</v>
+        <v>6.742446096297039</v>
       </c>
       <c r="D4">
-        <v>7.685580534485968</v>
+        <v>9.310458325437978</v>
       </c>
       <c r="E4">
-        <v>13.56249429853682</v>
+        <v>19.2867085016795</v>
       </c>
       <c r="F4">
-        <v>35.59566757088005</v>
+        <v>23.09642738838242</v>
       </c>
       <c r="G4">
-        <v>44.01337540754488</v>
+        <v>43.30419968940293</v>
       </c>
       <c r="H4">
-        <v>17.83380954292453</v>
+        <v>10.68598885299336</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.619371387037557</v>
+        <v>11.91912378911194</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>54.49656666426139</v>
+        <v>88.70652038647488</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.608160379575963</v>
+        <v>6.57581934214047</v>
       </c>
       <c r="D5">
-        <v>7.625843500384537</v>
+        <v>9.137266993378583</v>
       </c>
       <c r="E5">
-        <v>13.44138592253792</v>
+        <v>18.80765583538084</v>
       </c>
       <c r="F5">
-        <v>35.7827289625412</v>
+        <v>22.16673478091388</v>
       </c>
       <c r="G5">
-        <v>44.15686426090563</v>
+        <v>41.76067475507431</v>
       </c>
       <c r="H5">
-        <v>17.89855062843411</v>
+        <v>10.31494730325625</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.592156398688672</v>
+        <v>11.6103838949146</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>53.6010805822708</v>
+        <v>86.59687769304321</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.601257228816817</v>
+        <v>6.54803240674751</v>
       </c>
       <c r="D6">
-        <v>7.615872926794919</v>
+        <v>9.108332570570838</v>
       </c>
       <c r="E6">
-        <v>13.42121708392282</v>
+        <v>18.72794738823553</v>
       </c>
       <c r="F6">
-        <v>35.81423997601489</v>
+        <v>22.01642495184946</v>
       </c>
       <c r="G6">
-        <v>44.1814930354403</v>
+        <v>41.50867065869411</v>
       </c>
       <c r="H6">
-        <v>17.90946552452302</v>
+        <v>10.25451126808473</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.587687249535147</v>
+        <v>11.55913099617313</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>53.45081942142449</v>
+        <v>86.24537735951911</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.649137559061122</v>
+        <v>6.740206399087678</v>
       </c>
       <c r="D7">
-        <v>7.684778381178431</v>
+        <v>9.308134208102807</v>
       </c>
       <c r="E7">
-        <v>13.56086505434898</v>
+        <v>19.28025670073841</v>
       </c>
       <c r="F7">
-        <v>35.59816006603956</v>
+        <v>23.08361234280959</v>
       </c>
       <c r="G7">
-        <v>44.01525638528129</v>
+        <v>43.28308673541017</v>
       </c>
       <c r="H7">
-        <v>17.83467158509362</v>
+        <v>10.68090404487995</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.619001023692691</v>
+        <v>11.91495755925355</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>54.48459514400166</v>
+        <v>88.67814165625803</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.859060652288966</v>
+        <v>7.576921614525506</v>
       </c>
       <c r="D8">
-        <v>7.980935990993852</v>
+        <v>10.1669928915395</v>
       </c>
       <c r="E8">
-        <v>14.16730627235129</v>
+        <v>21.71976694004721</v>
       </c>
       <c r="F8">
-        <v>34.7115566877203</v>
+        <v>28.44903705391029</v>
       </c>
       <c r="G8">
-        <v>43.40227351399714</v>
+        <v>51.85322734035386</v>
       </c>
       <c r="H8">
-        <v>17.52898551761527</v>
+        <v>12.76142698891004</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.764305109521224</v>
+        <v>13.50739905187104</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>58.81572028645622</v>
+        <v>99.3363558602194</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.261526201115447</v>
+        <v>9.284705453948762</v>
       </c>
       <c r="D9">
-        <v>8.529398650333931</v>
+        <v>11.88606231034698</v>
       </c>
       <c r="E9">
-        <v>15.31084515464015</v>
+        <v>27.0112958773461</v>
       </c>
       <c r="F9">
-        <v>33.22985651592481</v>
+        <v>42.95755102298569</v>
       </c>
       <c r="G9">
-        <v>42.67136343001286</v>
+        <v>73.81281401853306</v>
       </c>
       <c r="H9">
-        <v>17.02146401379152</v>
+        <v>18.17184745325878</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.07356865933538</v>
+        <v>17.10067475499309</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>66.45909079625135</v>
+        <v>122.1300336666399</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.548263803092957</v>
+        <v>11.22327844039949</v>
       </c>
       <c r="D10">
-        <v>8.909675955913865</v>
+        <v>13.77014935502005</v>
       </c>
       <c r="E10">
-        <v>16.11525012659878</v>
+        <v>34.68695530189648</v>
       </c>
       <c r="F10">
-        <v>32.3150119436403</v>
+        <v>68.27955229170045</v>
       </c>
       <c r="G10">
-        <v>42.45552494866779</v>
+        <v>110.5136488075358</v>
       </c>
       <c r="H10">
-        <v>16.70900806236766</v>
+        <v>27.30102166140028</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.31442487838811</v>
+        <v>22.7119168054624</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>71.54554932629451</v>
+        <v>152.352055104076</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.676166067931619</v>
+        <v>11.22327844039949</v>
       </c>
       <c r="D11">
-        <v>9.077218836521554</v>
+        <v>13.77014935502005</v>
       </c>
       <c r="E11">
-        <v>16.47207299712639</v>
+        <v>34.68695530189648</v>
       </c>
       <c r="F11">
-        <v>31.94075446909027</v>
+        <v>68.27955229170045</v>
       </c>
       <c r="G11">
-        <v>42.43399350275977</v>
+        <v>110.5136488075358</v>
       </c>
       <c r="H11">
-        <v>16.58101830945898</v>
+        <v>27.30102166140028</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.42670329079487</v>
+        <v>22.7119168054624</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>73.74354812867794</v>
+        <v>152.352055104076</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.724192095648433</v>
+        <v>11.22327844039949</v>
       </c>
       <c r="D12">
-        <v>9.139841647955569</v>
+        <v>13.77014935502005</v>
       </c>
       <c r="E12">
-        <v>16.60578948980098</v>
+        <v>34.68695530189648</v>
       </c>
       <c r="F12">
-        <v>31.80544483277645</v>
+        <v>68.27955229170045</v>
       </c>
       <c r="G12">
-        <v>42.437394113351</v>
+        <v>110.5136488075358</v>
       </c>
       <c r="H12">
-        <v>16.53467891664123</v>
+        <v>27.30102166140028</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.46958885749049</v>
+        <v>22.7119168054624</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>74.55918116567652</v>
+        <v>152.352055104076</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.713867598427241</v>
+        <v>11.22327844039949</v>
       </c>
       <c r="D13">
-        <v>9.126391834969201</v>
+        <v>13.77014935502005</v>
       </c>
       <c r="E13">
-        <v>16.57705509129294</v>
+        <v>34.68695530189648</v>
       </c>
       <c r="F13">
-        <v>31.83429446403534</v>
+        <v>68.27955229170045</v>
       </c>
       <c r="G13">
-        <v>42.43613979111277</v>
+        <v>110.5136488075358</v>
       </c>
       <c r="H13">
-        <v>16.54456277184991</v>
+        <v>27.30102166140028</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.46033664790615</v>
+        <v>22.7119168054624</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>74.38426305060062</v>
+        <v>152.352055104076</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.680125598990881</v>
+        <v>11.22327844039949</v>
       </c>
       <c r="D14">
-        <v>9.082387533851865</v>
+        <v>13.77014935502005</v>
       </c>
       <c r="E14">
-        <v>16.48310258039757</v>
+        <v>34.68695530189648</v>
       </c>
       <c r="F14">
-        <v>31.92949160616219</v>
+        <v>68.27955229170045</v>
       </c>
       <c r="G14">
-        <v>42.43403879854488</v>
+        <v>110.5136488075358</v>
       </c>
       <c r="H14">
-        <v>16.57716274862739</v>
+        <v>27.30102166140028</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.43022425577496</v>
+        <v>22.7119168054624</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>73.81098557082314</v>
+        <v>152.352055104076</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.659403354750148</v>
+        <v>11.22327844039949</v>
       </c>
       <c r="D15">
-        <v>9.055325501447815</v>
+        <v>13.77014935502005</v>
       </c>
       <c r="E15">
-        <v>16.42536844327523</v>
+        <v>34.68695530189648</v>
       </c>
       <c r="F15">
-        <v>31.98864982353337</v>
+        <v>68.27955229170045</v>
       </c>
       <c r="G15">
-        <v>42.43427171555527</v>
+        <v>110.5136488075358</v>
       </c>
       <c r="H15">
-        <v>16.59741109824921</v>
+        <v>27.30102166140028</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.41182685825058</v>
+        <v>22.7119168054624</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>73.45766097606068</v>
+        <v>152.352055104076</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.53985025256956</v>
+        <v>11.22327844039949</v>
       </c>
       <c r="D16">
-        <v>8.898613608518685</v>
+        <v>13.77014935502005</v>
       </c>
       <c r="E16">
-        <v>16.09173923384965</v>
+        <v>34.68695530189648</v>
       </c>
       <c r="F16">
-        <v>32.34034629347623</v>
+        <v>68.27955229170045</v>
       </c>
       <c r="G16">
-        <v>42.45852077939599</v>
+        <v>110.5136488075358</v>
       </c>
       <c r="H16">
-        <v>16.71766502420883</v>
+        <v>27.30102166140028</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.30713991045031</v>
+        <v>22.7119168054624</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>71.39956917002849</v>
+        <v>152.352055104076</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.465826402599496</v>
+        <v>11.22327844039949</v>
       </c>
       <c r="D17">
-        <v>8.801051778117873</v>
+        <v>13.77014935502005</v>
       </c>
       <c r="E17">
-        <v>15.88466427569868</v>
+        <v>34.68695530189648</v>
       </c>
       <c r="F17">
-        <v>32.56710089048758</v>
+        <v>68.27955229170045</v>
       </c>
       <c r="G17">
-        <v>42.49341869761574</v>
+        <v>110.5136488075358</v>
       </c>
       <c r="H17">
-        <v>16.7951251188746</v>
+        <v>27.30102166140028</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.2435967044659</v>
+        <v>22.7119168054624</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>70.10728071315653</v>
+        <v>152.352055104076</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.423013366718439</v>
+        <v>11.22327844039949</v>
       </c>
       <c r="D18">
-        <v>8.744426100525789</v>
+        <v>13.77014935502005</v>
       </c>
       <c r="E18">
-        <v>15.76470801895726</v>
+        <v>34.68695530189648</v>
       </c>
       <c r="F18">
-        <v>32.70144395158615</v>
+        <v>68.27955229170045</v>
       </c>
       <c r="G18">
-        <v>42.52067629200982</v>
+        <v>110.5136488075358</v>
       </c>
       <c r="H18">
-        <v>16.84100390379932</v>
+        <v>27.30102166140028</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.20730484490095</v>
+        <v>22.7119168054624</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>69.35308531700791</v>
+        <v>152.352055104076</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.408478392862195</v>
+        <v>11.22327844039949</v>
       </c>
       <c r="D19">
-        <v>8.725167161756268</v>
+        <v>13.77014935502005</v>
       </c>
       <c r="E19">
-        <v>15.72394965425791</v>
+        <v>34.68695530189648</v>
       </c>
       <c r="F19">
-        <v>32.74759212360743</v>
+        <v>68.27955229170045</v>
       </c>
       <c r="G19">
-        <v>42.5311225627466</v>
+        <v>110.5136488075358</v>
       </c>
       <c r="H19">
-        <v>16.85676262747802</v>
+        <v>27.30102166140028</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.19506177483642</v>
+        <v>22.7119168054624</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>69.0958566359071</v>
+        <v>152.352055104076</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.473731170901959</v>
+        <v>11.22327844039949</v>
       </c>
       <c r="D20">
-        <v>8.811490551267124</v>
+        <v>13.77014935502005</v>
       </c>
       <c r="E20">
-        <v>15.90679669409255</v>
+        <v>34.68695530189648</v>
       </c>
       <c r="F20">
-        <v>32.5425540810798</v>
+        <v>68.27955229170045</v>
       </c>
       <c r="G20">
-        <v>42.48895614949463</v>
+        <v>110.5136488075358</v>
       </c>
       <c r="H20">
-        <v>16.78674148825014</v>
+        <v>27.30102166140028</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.25033459907246</v>
+        <v>22.7119168054624</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>70.24597610094273</v>
+        <v>152.352055104076</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.690047826929261</v>
+        <v>11.22327844039949</v>
       </c>
       <c r="D21">
-        <v>9.095335260327341</v>
+        <v>13.77014935502005</v>
       </c>
       <c r="E21">
-        <v>16.51073752158328</v>
+        <v>34.68695530189648</v>
       </c>
       <c r="F21">
-        <v>31.90135260565309</v>
+        <v>68.27955229170045</v>
       </c>
       <c r="G21">
-        <v>42.43433828241599</v>
+        <v>110.5136488075358</v>
       </c>
       <c r="H21">
-        <v>16.56752883578516</v>
+        <v>27.30102166140028</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.43905917319047</v>
+        <v>22.7119168054624</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>73.97982447469691</v>
+        <v>152.352055104076</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.829030026992053</v>
+        <v>11.22327844039949</v>
       </c>
       <c r="D22">
-        <v>9.276037833264242</v>
+        <v>13.77014935502005</v>
       </c>
       <c r="E22">
-        <v>16.89722610690288</v>
+        <v>34.68695530189648</v>
       </c>
       <c r="F22">
-        <v>31.51987403292587</v>
+        <v>68.27955229170045</v>
       </c>
       <c r="G22">
-        <v>42.46620753526396</v>
+        <v>110.5136488075358</v>
       </c>
       <c r="H22">
-        <v>16.43670867104714</v>
+        <v>27.30102166140028</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.56453803426754</v>
+        <v>22.7119168054624</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>76.32276827879785</v>
+        <v>152.352055104076</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.75508449401391</v>
+        <v>11.22327844039949</v>
       </c>
       <c r="D23">
-        <v>9.180044906103046</v>
+        <v>13.77014935502005</v>
       </c>
       <c r="E23">
-        <v>16.69173012342482</v>
+        <v>34.68695530189648</v>
       </c>
       <c r="F23">
-        <v>31.71990190339464</v>
+        <v>68.27955229170045</v>
       </c>
       <c r="G23">
-        <v>42.44285036775756</v>
+        <v>110.5136488075358</v>
       </c>
       <c r="H23">
-        <v>16.50535872572639</v>
+        <v>27.30102166140028</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.49737911292911</v>
+        <v>22.7119168054624</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>75.08120590209302</v>
+        <v>152.352055104076</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.470158218393602</v>
+        <v>11.22327844039949</v>
       </c>
       <c r="D24">
-        <v>8.806772848712956</v>
+        <v>13.77014935502005</v>
       </c>
       <c r="E24">
-        <v>15.89679344266914</v>
+        <v>34.68695530189648</v>
       </c>
       <c r="F24">
-        <v>32.55363932939927</v>
+        <v>68.27955229170045</v>
       </c>
       <c r="G24">
-        <v>42.49095129956406</v>
+        <v>110.5136488075358</v>
       </c>
       <c r="H24">
-        <v>16.7905275423198</v>
+        <v>27.30102166140028</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.24728764778754</v>
+        <v>22.7119168054624</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>70.18330692748897</v>
+        <v>152.352055104076</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.153999764704553</v>
+        <v>11.22327844039949</v>
       </c>
       <c r="D25">
-        <v>8.384811062073485</v>
+        <v>13.77014935502005</v>
       </c>
       <c r="E25">
-        <v>15.00725493998042</v>
+        <v>34.68695530189648</v>
       </c>
       <c r="F25">
-        <v>33.60151206343575</v>
+        <v>68.27955229170045</v>
       </c>
       <c r="G25">
-        <v>42.81510595569799</v>
+        <v>110.5136488075358</v>
       </c>
       <c r="H25">
-        <v>17.14848527227581</v>
+        <v>27.30102166140028</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.987421922039857</v>
+        <v>22.7119168054624</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>64.48373792389542</v>
+        <v>152.352055104076</v>
       </c>
       <c r="N25">
         <v>0</v>
